--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS150-001 until DPLKKPS150-002 - Kepesertaan - Proses - Corporate - Verifikasi Maintenance Corporate.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS150-001 until DPLKKPS150-002 - Kepesertaan - Proses - Corporate - Verifikasi Maintenance Corporate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3412BCC-EF6D-44B2-A5BB-EE6A323489E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5985FD4-3738-4503-B530-BAA5B2CCD8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKKPS150-001" sheetId="2" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>Verifikasi Maintenance Corporate</t>
   </si>
   <si>
-    <t>M02220800000045</t>
-  </si>
-  <si>
     <t>KEP.TRX.445 data belum lengkap</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>Data Maintenance Corporate berhasil disetujui</t>
   </si>
   <si>
-    <t>M02220800000046</t>
-  </si>
-  <si>
     <t>KEP.TRX.445 data disetujui</t>
   </si>
   <si>
@@ -129,22 +123,28 @@
   </si>
   <si>
     <t>NO_REGISTER</t>
+  </si>
+  <si>
+    <t>M02220800000051</t>
   </si>
   <si>
     <t>Username : 33441;
 Password : bni1234;
 Role : 09 - Penyelia Settlement;
 ;
-No Register : M02220800000046;
+No Register : M02220800000051;
 Status Verifikasi : 1 : Setuju;
 Keterangan Verifikasi : KEP.TRX.445 data disetujui</t>
+  </si>
+  <si>
+    <t>M02220800000053</t>
   </si>
   <si>
     <t>Username : 33441;
 Password : bni1234;
 Role : 09 - Penyelia Settlement;
 ;
-No Register : M02220800000045;
+No Register : M02220800000053;
 Status Verifikasi : 0 : Pending Register;
 Keterangan Verifikasi : KEP.TRX.445 data belum lengkap</t>
   </si>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CT7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>18</v>
@@ -690,7 +690,7 @@
         <v>19</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:98" ht="105" x14ac:dyDescent="0.25">
@@ -701,7 +701,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>22</v>
@@ -734,16 +734,16 @@
         <v>24</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="O2" s="4">
         <v>0</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="8"/>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21615457-D7EB-487E-8252-E4BBEAA10214}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +920,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>18</v>
@@ -929,7 +929,7 @@
         <v>19</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="105" x14ac:dyDescent="0.25">
@@ -940,16 +940,16 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="4">
         <v>33441</v>
@@ -973,16 +973,16 @@
         <v>24</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O2" s="4">
         <v>1</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
